--- a/biology/Botanique/Mimulus_aurantiacus/Mimulus_aurantiacus.xlsx
+++ b/biology/Botanique/Mimulus_aurantiacus/Mimulus_aurantiacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mimulus aurantiacus est une espèce d'arbrisseau de la famille des Scrophulariaceae originaire d'Amérique du Nord, du sud-ouest de l'Oregon jusqu'à la plus grande partie de la Californie. Il est considéré par certains botanistes comme faisant partie d'un genre distinct et doit être appelé Diplacus aurantiacus ssp. aurantiacus.
 Il pousse jusqu'à 1,2 mètre de hauteur, a des feuilles vertes collantes de 3 à 7 cm de long et jusqu'à un centimètre large et des tiges florales qui poussent verticalement. Les fleurs sont tubulaires à la base et mesurent environ 2 centimètres de long avec cinq lobes larges ; on les trouve dans une variété de couleurs allant du blanc au rouge, la couleur la plus commune étant orange clair. Elles sont pollinisées par les abeilles et les colibris.
